--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1141927.568954724</v>
+        <v>1158572.688258412</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5796300.417684083</v>
+        <v>5796300.417684084</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="F2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.325098768111</v>
+        <v>84.4730545048111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>19.72793538656374</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>137.6509866896794</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,58 +1141,58 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>46.04811363038955</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>129.0632770397856</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -1418,19 +1420,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>278.826569784421</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>6.71925357285062</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>48.79235057636044</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>19.18822243440149</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652704</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>156.3643295326802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>90.96561147395401</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -1740,16 +1742,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>55.67135697427633</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>129.0632770397854</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>125.1785149016546</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>112.8556863456975</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>7.425224531301852</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>127.5262986521572</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.78974769572864</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.0903419479083</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>127.712892838362</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.1437230760809</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>82.93775407817165</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>66.10337650124416</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.19479062707035</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>53.28249029595624</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>109.1332517576475</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.05798332645799</v>
+        <v>64.06181481010661</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>250.826926623351</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>39.19479062707035</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>376.4088801917397</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>230.2007569232755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2652,7 +2654,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.1707770673707</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>147.0557851781</v>
       </c>
     </row>
     <row r="28">
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.7727335375553</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>160.0903419479083</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.6920118803606</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>104.1189927826351</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2880,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>34.31881265622893</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>147.0557851781</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.35168551462418</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>98.6831373954543</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>122.135992742659</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>141.6396260835076</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3117,10 +3119,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>127.3343733834984</v>
+        <v>21.66584500200419</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>39.19479062707035</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>321.8296279470232</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>173.1945231188782</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>81.12752273267785</v>
+        <v>88.71925133702581</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3408,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>98.68313739545458</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>141.6396260835077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>312.8698354652412</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>81.12752273267782</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>150.5073434522157</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>157.7727335375553</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>19.18822243440149</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>184.6004973705066</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>233.6163442983502</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>43.43344283796007</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>99.87716788449302</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.637108967925702</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156.3643295326802</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>159.9594203774899</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4056,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>88.00880902957773</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>19.25477991828073</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4113,7 +4115,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>30.44996741998436</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.7812428759814</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C3" t="n">
-        <v>136.7812428759814</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D3" t="n">
-        <v>136.7812428759814</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>512.7568786610034</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.9965798960495</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
         <v>19.28114311021272</v>
@@ -4647,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>550.428880817545</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>550.428880817545</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>550.428880817545</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>550.428880817545</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>550.428880817545</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.2549444941228</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>521.2549444941228</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>372.3205348328715</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>213.083079827416</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>66.54852185430101</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4978,13 +4980,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1508.970645214177</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C11" t="n">
-        <v>1508.970645214177</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D11" t="n">
-        <v>1508.970645214177</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E11" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953004</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812577</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
@@ -5042,7 +5044,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
@@ -5066,25 +5068,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1508.970645214177</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V11" t="n">
-        <v>1508.970645214177</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W11" t="n">
-        <v>1508.970645214177</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="X11" t="n">
-        <v>1508.970645214177</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.970645214177</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>740.9541542535677</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="C12" t="n">
-        <v>566.5011249724407</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D12" t="n">
-        <v>417.5667153111894</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E12" t="n">
-        <v>258.3292603057339</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
@@ -5124,7 +5126,7 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
         <v>546.7891136313474</v>
@@ -5145,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1324.781290244122</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U12" t="n">
-        <v>1324.781290244122</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V12" t="n">
-        <v>1324.781290244122</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W12" t="n">
-        <v>1324.781290244122</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X12" t="n">
-        <v>1116.92979003859</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y12" t="n">
-        <v>909.1694912736357</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>341.8645587399183</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>341.8645587399183</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>341.8645587399183</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>852.1392691878377</v>
+        <v>510.1320343922934</v>
       </c>
       <c r="C14" t="n">
-        <v>852.1392691878377</v>
+        <v>510.1320343922934</v>
       </c>
       <c r="D14" t="n">
-        <v>852.1392691878377</v>
+        <v>510.1320343922934</v>
       </c>
       <c r="E14" t="n">
-        <v>852.1392691878377</v>
+        <v>124.3437817940492</v>
       </c>
       <c r="F14" t="n">
-        <v>442.2992974737949</v>
+        <v>124.3437817940492</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>124.3437817940492</v>
       </c>
       <c r="H14" t="n">
         <v>32.45932575975218</v>
@@ -5276,16 +5278,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5306,22 +5308,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>1400.222368368377</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X14" t="n">
-        <v>1400.222368368377</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y14" t="n">
-        <v>1010.083036392565</v>
+        <v>896.7318744564152</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>740.9541542535677</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C15" t="n">
-        <v>566.5011249724407</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="D15" t="n">
-        <v>417.5667153111894</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="E15" t="n">
-        <v>258.3292603057339</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="F15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>505.948365158507</v>
+        <v>470.3844842016425</v>
       </c>
       <c r="M15" t="n">
-        <v>905.36650176277</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N15" t="n">
         <v>1271.486777082839</v>
@@ -5388,19 +5390,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1116.92979003859</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1116.92979003859</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>1116.92979003859</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X15" t="n">
-        <v>1116.92979003859</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y15" t="n">
-        <v>909.1694912736357</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975218</v>
@@ -5443,43 +5445,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.24660160295</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1508.970645214177</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="C17" t="n">
-        <v>1508.970645214177</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="D17" t="n">
-        <v>1508.970645214177</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="E17" t="n">
-        <v>1378.603698709343</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
@@ -5513,13 +5515,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
         <v>838.8947028941454</v>
@@ -5543,22 +5545,22 @@
         <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1508.970645214177</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U17" t="n">
-        <v>1508.970645214177</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V17" t="n">
-        <v>1508.970645214177</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W17" t="n">
-        <v>1508.970645214177</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="X17" t="n">
-        <v>1508.970645214177</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1508.970645214177</v>
+        <v>348.5582999135143</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904698</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975218</v>
@@ -5592,52 +5594,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904698</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049326</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049326</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049326</v>
       </c>
       <c r="E19" t="n">
         <v>32.45932575975218</v>
@@ -5674,7 +5676,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191283</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5683,7 +5685,7 @@
         <v>187.2357570984439</v>
       </c>
       <c r="N19" t="n">
-        <v>270.9687512285709</v>
+        <v>270.9687512285708</v>
       </c>
       <c r="O19" t="n">
         <v>332.2934283710736</v>
@@ -5695,28 +5697,28 @@
         <v>361.24660160295</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687505</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049326</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049326</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>161.4622478187037</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>161.4622478187037</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5756,10 +5758,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1476.356466698639</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U20" t="n">
-        <v>1476.356466698639</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V20" t="n">
-        <v>1145.293579355068</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W20" t="n">
-        <v>792.5249240849539</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="X20" t="n">
-        <v>419.059165823874</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="Y20" t="n">
-        <v>419.059165823874</v>
+        <v>571.3022195327464</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>765.2637299900978</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C21" t="n">
-        <v>590.8107007089708</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="D21" t="n">
-        <v>590.8107007089708</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="G21" t="n">
         <v>222.0882603251556</v>
@@ -5832,22 +5834,22 @@
         <v>61.20822116384402</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384402</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5856,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1455.464052945775</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U21" t="n">
-        <v>1227.261385483253</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V21" t="n">
-        <v>1227.261385483253</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W21" t="n">
-        <v>973.0240287550516</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X21" t="n">
-        <v>973.0240287550516</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y21" t="n">
-        <v>765.2637299900978</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5937,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="S22" t="n">
-        <v>361.24660160295</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
         <v>32.45932575975218</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.28002302839485</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C23" t="n">
-        <v>86.28002302839485</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D23" t="n">
-        <v>86.28002302839485</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975218</v>
@@ -5987,16 +5989,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521502</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6014,25 +6016,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1202.653768535401</v>
+        <v>1512.730680151602</v>
       </c>
       <c r="V23" t="n">
-        <v>1202.653768535401</v>
+        <v>1181.667792808031</v>
       </c>
       <c r="W23" t="n">
-        <v>849.8851132652865</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="X23" t="n">
-        <v>476.4193550042066</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.28002302839485</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>843.1255275138191</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C24" t="n">
-        <v>668.6724982326921</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D24" t="n">
-        <v>519.7380885714408</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E24" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6093,25 +6095,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U24" t="n">
-        <v>1374.066492846507</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V24" t="n">
-        <v>1138.914384614764</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W24" t="n">
-        <v>1138.914384614764</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X24" t="n">
-        <v>931.0628844092312</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y24" t="n">
-        <v>931.0628844092312</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.2357570984439</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710736</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>72.05002336285355</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="V25" t="n">
-        <v>72.05002336285355</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.60575604483</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
@@ -6251,25 +6253,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>948.8168854676546</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>617.753998124084</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W26" t="n">
-        <v>264.9853428539698</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X26" t="n">
-        <v>264.9853428539698</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>761.3902992528161</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C27" t="n">
-        <v>586.9372699716891</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D27" t="n">
-        <v>586.9372699716891</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E27" t="n">
-        <v>427.6998149662337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1652569931186</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>607.6347467811067</v>
       </c>
       <c r="N27" t="n">
-        <v>1271.486777082839</v>
+        <v>1009.31890305804</v>
       </c>
       <c r="O27" t="n">
         <v>1271.486777082839</v>
@@ -6327,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1580.369543475113</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1580.369543475113</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1580.369543475113</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>1580.369543475113</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>1345.217435243371</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W27" t="n">
-        <v>1345.217435243371</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="X27" t="n">
-        <v>1137.365935037838</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="Y27" t="n">
-        <v>929.6056362728841</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.2357570984439</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710736</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.24660160295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>194.1667418687505</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1232.826956011797</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C29" t="n">
-        <v>1232.826956011797</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D29" t="n">
-        <v>1232.826956011797</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E29" t="n">
-        <v>847.0387034135531</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>437.1987316995103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6497,16 +6499,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y29" t="n">
-        <v>1232.826956011797</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>989.6600854869342</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="C30" t="n">
-        <v>815.2070562058072</v>
+        <v>375.2966577559831</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>226.3622480947319</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>67.12479308927635</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6543,49 +6545,49 @@
         <v>61.20822116384402</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V30" t="n">
-        <v>1306.416619656598</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.416619656598</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X30" t="n">
-        <v>1306.416619656598</v>
+        <v>925.7253228221321</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.875422507002</v>
+        <v>717.9650240571782</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>1476.076340489699</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>1306.655462159183</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
         <v>1294.179012144411</v>
@@ -6649,22 +6651,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C32" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D32" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>155.8290153988017</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6695,16 +6697,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.4593257597521</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941454</v>
@@ -6731,19 +6733,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V32" t="n">
-        <v>1291.903400644038</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W32" t="n">
-        <v>939.1347453739243</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X32" t="n">
-        <v>565.6689871128444</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y32" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>790.2393568559519</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="C33" t="n">
-        <v>615.7863275748249</v>
+        <v>362.5158823476753</v>
       </c>
       <c r="D33" t="n">
-        <v>466.8519179135736</v>
+        <v>213.581472686424</v>
       </c>
       <c r="E33" t="n">
-        <v>307.6144629081181</v>
+        <v>54.34401768096853</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0799049350031</v>
+        <v>54.34401768096853</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6801,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1374.066492846507</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1374.066492846507</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.066492846507</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W33" t="n">
-        <v>1374.066492846507</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X33" t="n">
-        <v>1166.214992640974</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y33" t="n">
-        <v>958.45469387602</v>
+        <v>536.9689116288023</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.549117950648</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285355</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>726.5022749698843</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C35" t="n">
-        <v>357.5397580294726</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D35" t="n">
-        <v>357.5397580294726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>357.5397580294726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>357.5397580294726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>357.5397580294726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
         <v>32.45932575975218</v>
@@ -6935,16 +6937,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1057.565162313455</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="V35" t="n">
-        <v>726.5022749698843</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="W35" t="n">
-        <v>726.5022749698843</v>
+        <v>764.1907826275826</v>
       </c>
       <c r="X35" t="n">
-        <v>726.5022749698843</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.5022749698843</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.9123550408792</v>
+        <v>614.8557412797012</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7014,22 +7016,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.019295328339</v>
+        <v>1533.350882596674</v>
       </c>
       <c r="T36" t="n">
-        <v>1340.116286433832</v>
+        <v>1332.447873702167</v>
       </c>
       <c r="U36" t="n">
-        <v>1111.91361897131</v>
+        <v>1104.245206239646</v>
       </c>
       <c r="V36" t="n">
-        <v>876.7615107395675</v>
+        <v>869.0930980079029</v>
       </c>
       <c r="W36" t="n">
-        <v>622.5241540113659</v>
+        <v>614.8557412797012</v>
       </c>
       <c r="X36" t="n">
-        <v>414.6726538058331</v>
+        <v>614.8557412797012</v>
       </c>
       <c r="Y36" t="n">
-        <v>206.9123550408792</v>
+        <v>614.8557412797012</v>
       </c>
     </row>
     <row r="37">
@@ -7120,16 +7122,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="S37" t="n">
-        <v>361.24660160295</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T37" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U37" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
         <v>32.45932575975218</v>
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="C38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="D38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="E38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>175.5296551370327</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7205,19 +7207,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1038.066517576292</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W38" t="n">
-        <v>685.2978623061783</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X38" t="n">
-        <v>369.2677254726013</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y38" t="n">
-        <v>369.2677254726013</v>
+        <v>175.5296551370327</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>288.8593477001497</v>
+        <v>840.725675825683</v>
       </c>
       <c r="C39" t="n">
-        <v>114.4063184190227</v>
+        <v>666.272646544556</v>
       </c>
       <c r="D39" t="n">
-        <v>114.4063184190227</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>505.948365158507</v>
+        <v>470.3844842016425</v>
       </c>
       <c r="M39" t="n">
-        <v>905.36650176277</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O39" t="n">
         <v>1271.486777082839</v>
@@ -7281,22 +7283,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093102</v>
+        <v>1470.938668338906</v>
       </c>
       <c r="U39" t="n">
-        <v>1193.860611630581</v>
+        <v>1470.938668338906</v>
       </c>
       <c r="V39" t="n">
-        <v>958.708503398838</v>
+        <v>1470.938668338906</v>
       </c>
       <c r="W39" t="n">
-        <v>704.4711466706365</v>
+        <v>1216.701311610705</v>
       </c>
       <c r="X39" t="n">
-        <v>496.6196464651036</v>
+        <v>1216.701311610705</v>
       </c>
       <c r="Y39" t="n">
-        <v>288.8593477001497</v>
+        <v>1008.941012845751</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E40" t="n">
-        <v>193.9514651575251</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F40" t="n">
-        <v>193.9514651575251</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G40" t="n">
-        <v>193.9514651575251</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>341.8645587399183</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>759.6875413069145</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C41" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D41" t="n">
         <v>32.45932575975218</v>
@@ -7409,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7439,22 +7441,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1436.501139128512</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919863</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="V41" t="n">
-        <v>1369.129404919863</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="W41" t="n">
-        <v>1133.153299567994</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="X41" t="n">
-        <v>759.6875413069145</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y41" t="n">
-        <v>759.6875413069145</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>389.1968927644969</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>214.7438634833699</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D42" t="n">
-        <v>214.7438634833699</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E42" t="n">
-        <v>214.7438634833699</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>214.7438634833699</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>76.33149024254013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7488,22 +7490,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P42" t="n">
         <v>1513.730526286846</v>
@@ -7512,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1227.261385483253</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V42" t="n">
-        <v>1227.261385483253</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W42" t="n">
-        <v>973.0240287550516</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X42" t="n">
-        <v>765.1725285495188</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y42" t="n">
-        <v>557.4122297845649</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975218</v>
+        <v>42.19377926270744</v>
       </c>
       <c r="E43" t="n">
         <v>32.45932575975218</v>
@@ -7597,22 +7599,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.1392691878377</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C44" t="n">
-        <v>852.1392691878377</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D44" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7646,10 +7648,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
         <v>519.4894913528324</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="U44" t="n">
-        <v>1400.222368368377</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="V44" t="n">
-        <v>1400.222368368377</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="W44" t="n">
-        <v>1400.222368368377</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="X44" t="n">
-        <v>1400.222368368377</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="Y44" t="n">
-        <v>1010.083036392565</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>121.3571126583155</v>
+        <v>524.0114559318924</v>
       </c>
       <c r="C45" t="n">
-        <v>121.3571126583155</v>
+        <v>349.5584266507655</v>
       </c>
       <c r="D45" t="n">
-        <v>121.3571126583155</v>
+        <v>349.5584266507655</v>
       </c>
       <c r="E45" t="n">
-        <v>121.3571126583155</v>
+        <v>190.32097164531</v>
       </c>
       <c r="F45" t="n">
-        <v>121.3571126583155</v>
+        <v>190.32097164531</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975218</v>
+        <v>51.90859840448019</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7725,25 +7727,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7752,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1254.561044051268</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U45" t="n">
-        <v>1026.358376588747</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>791.2062683570039</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="W45" t="n">
-        <v>536.9689116288023</v>
+        <v>939.6232549023791</v>
       </c>
       <c r="X45" t="n">
-        <v>329.1174114232695</v>
+        <v>731.7717546968463</v>
       </c>
       <c r="Y45" t="n">
-        <v>121.3571126583155</v>
+        <v>524.0114559318924</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D46" t="n">
-        <v>211.1299621906143</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>63.21686860822123</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975218</v>
@@ -7843,13 +7845,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2055399582308</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>305.8779449388568</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>419.1643094528388</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58604940343857</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>86.93262649026377</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344214</v>
       </c>
       <c r="N18" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210652</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304797</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,22 +9953,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733475</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1250211658772</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58604940343857</v>
+        <v>332.4020837719221</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258627</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275543</v>
@@ -10899,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>305.8779449388568</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>92.88803957954771</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343857</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>117.917222536309</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>281.0382923213828</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026376</v>
@@ -11388,13 +11390,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>180.1562595611509</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>41.31998168728992</v>
+        <v>73.17202595058984</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,13 +22831,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>130.141182554586</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22863,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>62.51374200514223</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23112,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>91.29540353282108</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>252.8670930324761</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>70.41439893299201</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>165.9892454154651</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -23355,7 +23357,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>150.1016282292012</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>160.6437577475358</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852481</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>226.3695121308004</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>242.4747042417666</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23546,7 +23548,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>137.643987862082</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -23592,7 +23594,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,16 +23630,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>170.2492838136203</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852492</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>59.320056923945</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>252.8670930324764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>208.261800814066</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,16 +23785,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>165.2832744570139</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>124.1686845087624</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.64421495084054</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23937,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>66.72592374140297</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>205.7274228773586</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>75.37275734695893</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>74.70732637722929</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>70.9248730071773</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>247.3282077095207</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>328.6478797763056</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>112.8556863456975</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>142.1652624794209</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.47520032340935</v>
+        <v>102.4713688397607</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24385,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>35.47768583434447</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>247.3282077095207</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>38.30462393879418</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>156.0371817327781</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.41280743090483</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>58.62691059920436</v>
       </c>
     </row>
     <row r="28">
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>2.104484466239882</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24646,10 +24648,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>59.32005692394506</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24680,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>14.02149225017337</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24737,13 +24739,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>223.6332656874998</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>110.750399737155</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -24819,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.62691059920436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>147.525532489171</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24889,10 +24891,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622412</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>292.5775113878749</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24971,7 +24973,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>109.6588881535608</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25005,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>9.693876124923051</v>
+        <v>115.3624045064173</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>107.2391720194988</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,16 +25131,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25171,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>11.6106877686974</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>78.10399111819018</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25239,16 +25241,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25281,7 +25283,7 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S36" t="n">
-        <v>84.69968995873791</v>
+        <v>77.10796135438994</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25360,19 +25362,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>247.3282077095207</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25406,10 +25408,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>46.11984342706222</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,7 +25447,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>56.8612652132278</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>76.51755772272313</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>48.38663535334595</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.104484466239882</v>
       </c>
       <c r="I40" t="n">
         <v>147.5019580580808</v>
@@ -25606,7 +25608,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>232.9494208894265</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25679,7 +25681,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>35.91598305253325</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>115.6246244190628</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>65.7571795746513</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>126.0434729034036</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>136.7968536786435</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,10 +25839,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.3695121308004</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>60.55706004554986</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25944,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>49.01944047884372</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>89.93584249433064</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25992,7 +25994,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>109.6390682700375</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>114.9710806029469</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>415520.7712184748</v>
+        <v>415520.771218475</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>415520.771218475</v>
+        <v>415520.7712184748</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>529797.5294833999</v>
+        <v>529797.5294833998</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>529797.5294834002</v>
+        <v>529797.5294834003</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>529797.5294834002</v>
+        <v>529797.5294833999</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>529797.5294833997</v>
+        <v>529797.5294833999</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>529797.5294833997</v>
+        <v>529797.5294833999</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>529797.5294834002</v>
+        <v>529797.5294834003</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529797.5294833999</v>
+        <v>529797.5294834002</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529797.5294834001</v>
+        <v>529797.5294833996</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="C2" t="n">
         <v>182776.7397844656</v>
-      </c>
-      <c r="C2" t="n">
-        <v>182776.7397844657</v>
       </c>
       <c r="D2" t="n">
         <v>182776.7397844656</v>
@@ -26332,28 +26334,28 @@
         <v>234991.7867710671</v>
       </c>
       <c r="I2" t="n">
+        <v>234991.7867710672</v>
+      </c>
+      <c r="J2" t="n">
         <v>234991.7867710671</v>
-      </c>
-      <c r="J2" t="n">
-        <v>234991.7867710672</v>
       </c>
       <c r="K2" t="n">
         <v>234991.7867710671</v>
       </c>
       <c r="L2" t="n">
+        <v>234991.7867710673</v>
+      </c>
+      <c r="M2" t="n">
         <v>234991.7867710672</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>234991.786771067</v>
+      </c>
+      <c r="O2" t="n">
         <v>234991.7867710671</v>
       </c>
-      <c r="N2" t="n">
-        <v>234991.7867710671</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>234991.7867710672</v>
-      </c>
-      <c r="P2" t="n">
-        <v>234991.7867710671</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26429,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="F4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="G4" t="n">
         <v>17394.13523139261</v>
@@ -26445,13 +26447,13 @@
         <v>17394.13523139261</v>
       </c>
       <c r="L4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="M4" t="n">
         <v>17394.13523139261</v>
       </c>
       <c r="N4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="O4" t="n">
         <v>17394.13523139261</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36811.34984817539</v>
+        <v>36811.34984817543</v>
       </c>
       <c r="C6" t="n">
-        <v>117580.7813797232</v>
+        <v>117580.7813797231</v>
       </c>
       <c r="D6" t="n">
         <v>117580.7813797231</v>
       </c>
       <c r="E6" t="n">
-        <v>22793.12850067018</v>
+        <v>22793.12850067024</v>
       </c>
       <c r="F6" t="n">
+        <v>189733.2986259169</v>
+      </c>
+      <c r="G6" t="n">
         <v>189733.298625917</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>189733.298625917</v>
+      </c>
+      <c r="I6" t="n">
+        <v>189733.298625917</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126673.3560268107</v>
+      </c>
+      <c r="K6" t="n">
         <v>189733.2986259169</v>
       </c>
-      <c r="H6" t="n">
-        <v>189733.2986259169</v>
-      </c>
-      <c r="I6" t="n">
-        <v>189733.2986259169</v>
-      </c>
-      <c r="J6" t="n">
-        <v>126673.3560268108</v>
-      </c>
-      <c r="K6" t="n">
-        <v>189733.298625917</v>
-      </c>
       <c r="L6" t="n">
-        <v>189733.298625917</v>
+        <v>189733.2986259171</v>
       </c>
       <c r="M6" t="n">
-        <v>148682.600763469</v>
+        <v>148682.6007634691</v>
       </c>
       <c r="N6" t="n">
-        <v>189733.298625917</v>
+        <v>189733.2986259168</v>
       </c>
       <c r="O6" t="n">
         <v>189733.298625917</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32011,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32078,22 +32080,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32102,7 +32104,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32181,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011532</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046561</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629217</v>
       </c>
       <c r="K17" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645899</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044656</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438473</v>
@@ -32248,25 +32250,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971763</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737664</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134782</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545222</v>
       </c>
       <c r="S17" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091549</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809224</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891927</v>
       </c>
       <c r="H18" t="n">
         <v>3.044821823885099</v>
@@ -32312,40 +32314,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.7858796132193</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409521</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253942</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864763</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975587</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100586</v>
       </c>
       <c r="P18" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601699</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326608</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422063</v>
       </c>
       <c r="T18" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259947</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823637</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32394,16 +32396,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412593</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323127</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141107</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039454</v>
       </c>
       <c r="O19" t="n">
         <v>37.35899041172068</v>
@@ -32412,16 +32414,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735008</v>
       </c>
       <c r="R19" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118888</v>
       </c>
       <c r="T19" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970202</v>
       </c>
       <c r="U19" t="n">
         <v>0.01441689879536431</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011532</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046561</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629217</v>
       </c>
       <c r="K23" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645899</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044656</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32722,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971763</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737664</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134782</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545222</v>
       </c>
       <c r="S23" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091549</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809224</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891927</v>
       </c>
       <c r="H24" t="n">
         <v>3.044821823885099</v>
@@ -32786,40 +32788,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.7858796132193</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409521</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253942</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864763</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975587</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100586</v>
       </c>
       <c r="P24" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601699</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326608</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422063</v>
       </c>
       <c r="T24" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259947</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823637</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32868,16 +32870,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412593</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323127</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141107</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039454</v>
       </c>
       <c r="O25" t="n">
         <v>37.35899041172068</v>
@@ -32886,16 +32888,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735008</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118888</v>
       </c>
       <c r="T25" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970202</v>
       </c>
       <c r="U25" t="n">
         <v>0.01441689879536431</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L38" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33907,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33967,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
@@ -33974,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -33998,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34041,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34077,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34781,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>312.9531394448602</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35656,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>235.776746081522</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>369.8184599192613</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35805,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167965</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726432</v>
@@ -35899,10 +35901,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P17" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680302</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>189.7466035210507</v>
       </c>
       <c r="N18" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35981,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243077</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325165</v>
       </c>
       <c r="N19" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576035</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714789</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>29.03928828696145</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36215,10 +36217,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167965</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36373,10 +36375,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P23" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680302</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36446,16 +36448,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243077</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325165</v>
       </c>
       <c r="N25" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576035</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714789</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>340.7791716322998</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>264.8160343684835</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36911,7 +36913,7 @@
         <v>29.03928828696145</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36920,7 +36922,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,7 +37402,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37552,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>235.776746081522</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>43.54219004597032</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>244.6906557616239</v>
@@ -37701,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37795,7 +37797,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
         <v>53.63987744680304</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>30.98459604604529</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>218.7858918080121</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37874,7 +37876,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3391532330937</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209097</v>
       </c>
       <c r="M44" t="n">
         <v>322.6315268094071</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>112.5702101577123</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
